--- a/resource_api/finans/konteyner_islem/dosyalar/depo_listesi.xlsx
+++ b/resource_api/finans/konteyner_islem/dosyalar/depo_listesi.xlsx
@@ -581,13 +581,13 @@
         </is>
       </c>
       <c r="B3" s="12" t="n">
-        <v>340190.47</v>
+        <v>373404.83</v>
       </c>
       <c r="C3" s="12" t="n">
-        <v>256502.78</v>
+        <v>293031.08</v>
       </c>
       <c r="D3" s="12" t="n">
-        <v>16932.52</v>
+        <v>6416.98</v>
       </c>
     </row>
     <row r="4">
@@ -613,13 +613,13 @@
         </is>
       </c>
       <c r="B5" s="12" t="n">
-        <v>672434.99</v>
+        <v>709902.67</v>
       </c>
       <c r="C5" s="12" t="n">
-        <v>471956.04</v>
+        <v>534535.51</v>
       </c>
       <c r="D5" s="12" t="n">
-        <v>29055.24</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -629,7 +629,7 @@
         </is>
       </c>
       <c r="B6" s="12" t="n">
-        <v>140989.95</v>
+        <v>146266.95</v>
       </c>
       <c r="C6" s="12" t="n">
         <v>86464.74000000001</v>
